--- a/data/reservation_log.xlsx
+++ b/data/reservation_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,35 +469,25 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>catches_per_person</t>
+          <t>status_text</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>total_catch</t>
+          <t>url</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>status_text</t>
+          <t>url_normalized</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>seat_image_url</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>url_normalized</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>seat_image_url</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
         <is>
           <t>note</t>
         </is>
@@ -533,40 +523,38 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>failed: HTTPError('403 Client Error: Forbidden for url: https://www.arakawaya.jp/')</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.arakawaya.jp/</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>failed: HTTPError('403 Client Error: Forbidden for url: https://www.arakawaya.jp/')</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
           <t>https://www.arakawaya.jp/</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>https://www.arakawaya.jp/</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7f6b169066a73dfba72270812cd42564effdacaf</t>
+          <t>42b98bc0555687bf7771dd47bb7985e7f320c2a2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ひらの丸</t>
+          <t>荒川屋</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -577,31 +565,85 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ひらの丸</t>
+          <t>荒川屋</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>failed: HTTPError('403 Forbidden for url: https://www.arakawaya.jp/')</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.arakawaya.jp/</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>https://www.arakawaya.jp/</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>arakawaya_fetch_failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7f6b169066a73dfba72270812cd42564effdacaf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:33:53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ひらの丸</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CHECK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ひらの丸</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>failed: ConnectionError(MaxRetryError('HTTPSConnectionPool(host=\'hiranomaru.net\', port=443): Max retries exceeded with url: / (Caused by NameResolutionError("HTTPSConnection(host=\'hiranomaru.net\', port=443): Failed to resolve \'hiranomaru.net\' ([Errno -5] No address associated with hostname)"))'))</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://hiranomaru.net/</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://hiranomaru.net/</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>hiranomaru_fetch_failed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
